--- a/biology/Histoire de la zoologie et de la botanique/Fritz_Sarasin/Fritz_Sarasin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fritz_Sarasin/Fritz_Sarasin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritz Sarasin (né Karl Friedrich Sarasin le 3 décembre 1859 et mort le 23 mars 1942) est un naturaliste suisse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est un cousin germain de Paul Sarasin[1]. Ils font une expédition scientifique à Célèbes (aujourd'hui Sulawesi) en 1893 puis en 1903[2], où ils découvrent de nombreuses espèces, ainsi que la culture préhistorique toalienne.
-Fritz et Paul Sarasin sont commémorés par les noms scientifiques de cinq espèces de reptiles : Amphiesma sarasinorum, Correlophus sarasinorum, Nessia sarasinorum, Pseudorabdion sarasinorum et Sphenomorphus sarasinorum[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est un cousin germain de Paul Sarasin. Ils font une expédition scientifique à Célèbes (aujourd'hui Sulawesi) en 1893 puis en 1903, où ils découvrent de nombreuses espèces, ainsi que la culture préhistorique toalienne.
+Fritz et Paul Sarasin sont commémorés par les noms scientifiques de cinq espèces de reptiles : Amphiesma sarasinorum, Correlophus sarasinorum, Nessia sarasinorum, Pseudorabdion sarasinorum et Sphenomorphus sarasinorum.
 Il existe sept espèces, deux genres et une sous-famille qui portent leur nom.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a publié quelques ouvrages scientifiques avec Paul Sarasin.
 Sarasin F. &amp; Roux J. (eds.) (1913–1918). Nova Caledonia. Forschungen in Neu-Caledonien und auf den Loyalty-Inseln. Recherches scientifiques en Nouvelle-Calédonie et aux iles Loyalty. Wiesbaden.
